--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44103</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>43817</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>44109</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         <v>44433</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         <v>43396</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         <v>45121</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>44412</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>44132</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44473</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44447</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44498</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44501</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>44747</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>44601</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         <v>44706</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44782</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44811</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44902</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44944</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44945</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3399,7 +3399,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4304,7 +4304,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4564,7 +4564,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4654,7 +4654,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5483,7 +5483,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5892,7 +5892,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6192,7 +6192,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6596,7 +6596,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6710,7 +6710,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7957,7 +7957,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8014,7 +8014,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8071,7 +8071,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8242,7 +8242,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8475,7 +8475,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8532,7 +8532,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8765,7 +8765,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8822,7 +8822,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9454,7 +9454,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9511,7 +9511,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9568,7 +9568,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9863,7 +9863,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10153,7 +10153,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10210,7 +10210,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10324,7 +10324,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11023,7 +11023,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11080,7 +11080,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12912,7 +12912,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12969,7 +12969,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13398,7 +13398,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13522,7 +13522,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13584,7 +13584,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13641,7 +13641,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13884,7 +13884,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14355,7 +14355,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14479,7 +14479,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14536,7 +14536,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14598,7 +14598,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14655,7 +14655,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14779,7 +14779,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14965,7 +14965,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15089,7 +15089,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15399,7 +15399,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15461,7 +15461,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15518,7 +15518,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15818,7 +15818,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16051,7 +16051,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16113,7 +16113,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16232,7 +16232,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16294,7 +16294,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16351,7 +16351,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16408,7 +16408,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16465,7 +16465,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16522,7 +16522,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16584,7 +16584,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17122,7 +17122,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17246,7 +17246,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17308,7 +17308,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17370,7 +17370,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17489,7 +17489,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17546,7 +17546,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17603,7 +17603,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17727,7 +17727,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17784,7 +17784,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17898,7 +17898,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17960,7 +17960,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18017,7 +18017,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18079,7 +18079,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18136,7 +18136,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18193,7 +18193,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18250,7 +18250,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18307,7 +18307,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18421,7 +18421,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18654,7 +18654,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18711,7 +18711,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18887,7 +18887,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18949,7 +18949,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19073,7 +19073,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19249,7 +19249,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19311,7 +19311,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19373,7 +19373,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19740,7 +19740,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19802,7 +19802,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19859,7 +19859,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19983,7 +19983,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20045,7 +20045,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20102,7 +20102,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20407,7 +20407,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20531,7 +20531,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20655,7 +20655,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20717,7 +20717,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20779,7 +20779,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20836,7 +20836,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20893,7 +20893,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20955,7 +20955,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21012,7 +21012,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21312,7 +21312,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21374,7 +21374,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21436,7 +21436,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21498,7 +21498,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21560,7 +21560,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21622,7 +21622,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21679,7 +21679,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21984,7 +21984,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22041,7 +22041,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22222,7 +22222,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22284,7 +22284,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22470,7 +22470,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22651,7 +22651,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22837,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22899,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22961,7 +22961,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23432,7 +23432,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23489,7 +23489,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23546,7 +23546,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23608,7 +23608,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23665,7 +23665,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23722,7 +23722,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23779,7 +23779,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24007,7 +24007,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24069,7 +24069,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24307,7 +24307,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24788,7 +24788,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25098,7 +25098,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25160,7 +25160,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25222,7 +25222,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25279,7 +25279,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25393,7 +25393,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25450,7 +25450,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25507,7 +25507,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25569,7 +25569,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25626,7 +25626,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26350,7 +26350,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26779,7 +26779,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26841,7 +26841,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26898,7 +26898,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26955,7 +26955,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27069,7 +27069,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27131,7 +27131,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27193,7 +27193,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27317,7 +27317,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27374,7 +27374,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27617,7 +27617,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27674,7 +27674,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27731,7 +27731,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27793,7 +27793,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27855,7 +27855,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28160,7 +28160,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28222,7 +28222,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28284,7 +28284,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28346,7 +28346,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28403,7 +28403,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28641,7 +28641,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28936,7 +28936,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28998,7 +28998,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29055,7 +29055,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29117,7 +29117,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29174,7 +29174,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29293,7 +29293,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29350,7 +29350,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29407,7 +29407,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29464,7 +29464,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29583,7 +29583,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29640,7 +29640,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29697,7 +29697,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29754,7 +29754,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29816,7 +29816,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29873,7 +29873,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29930,7 +29930,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29987,7 +29987,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30044,7 +30044,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30101,7 +30101,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30158,7 +30158,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30215,7 +30215,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30272,7 +30272,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30391,7 +30391,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30453,7 +30453,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30515,7 +30515,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30577,7 +30577,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30634,7 +30634,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30696,7 +30696,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30758,7 +30758,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30815,7 +30815,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30872,7 +30872,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30929,7 +30929,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31100,7 +31100,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31157,7 +31157,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31214,7 +31214,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31271,7 +31271,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31328,7 +31328,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31385,7 +31385,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31613,7 +31613,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31670,7 +31670,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31727,7 +31727,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31784,7 +31784,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31841,7 +31841,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31898,7 +31898,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31960,7 +31960,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32017,7 +32017,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32074,7 +32074,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32131,7 +32131,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32193,7 +32193,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32250,7 +32250,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32312,7 +32312,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32369,7 +32369,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32426,7 +32426,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32483,7 +32483,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32602,7 +32602,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32659,7 +32659,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32716,7 +32716,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32773,7 +32773,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32887,7 +32887,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32949,7 +32949,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33011,7 +33011,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33073,7 +33073,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33135,7 +33135,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33192,7 +33192,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33378,7 +33378,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33440,7 +33440,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33497,7 +33497,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33559,7 +33559,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33616,7 +33616,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33673,7 +33673,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33735,7 +33735,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33797,7 +33797,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33921,7 +33921,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33978,7 +33978,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34102,7 +34102,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34164,7 +34164,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34288,7 +34288,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34350,7 +34350,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34412,7 +34412,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34474,7 +34474,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34536,7 +34536,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34593,7 +34593,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34650,7 +34650,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34707,7 +34707,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34940,7 +34940,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35059,7 +35059,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35116,7 +35116,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35173,7 +35173,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35230,7 +35230,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35287,7 +35287,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35411,7 +35411,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35597,7 +35597,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35654,7 +35654,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35716,7 +35716,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35778,7 +35778,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35835,7 +35835,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35892,7 +35892,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35954,7 +35954,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36011,7 +36011,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36073,7 +36073,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36135,7 +36135,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36197,7 +36197,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36254,7 +36254,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36311,7 +36311,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36368,7 +36368,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36425,7 +36425,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36482,7 +36482,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36539,7 +36539,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36596,7 +36596,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36658,7 +36658,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36782,7 +36782,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36844,7 +36844,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37196,7 +37196,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37372,7 +37372,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37553,7 +37553,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37610,7 +37610,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37672,7 +37672,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37734,7 +37734,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37858,7 +37858,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37982,7 +37982,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38044,7 +38044,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38168,7 +38168,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38225,7 +38225,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38282,7 +38282,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38396,7 +38396,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38458,7 +38458,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38520,7 +38520,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38582,7 +38582,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38644,7 +38644,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38706,7 +38706,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38763,7 +38763,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38820,7 +38820,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38877,7 +38877,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38939,7 +38939,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38996,7 +38996,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39053,7 +39053,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39239,7 +39239,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39296,7 +39296,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39358,7 +39358,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39482,7 +39482,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39539,7 +39539,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39601,7 +39601,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39663,7 +39663,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39720,7 +39720,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39777,7 +39777,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39834,7 +39834,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39891,7 +39891,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39953,7 +39953,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40015,7 +40015,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40072,7 +40072,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40134,7 +40134,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40191,7 +40191,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40253,7 +40253,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40310,7 +40310,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40372,7 +40372,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40429,7 +40429,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40491,7 +40491,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40553,7 +40553,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40610,7 +40610,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40672,7 +40672,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40729,7 +40729,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40791,7 +40791,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40848,7 +40848,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40905,7 +40905,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40962,7 +40962,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41019,7 +41019,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41081,7 +41081,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41143,7 +41143,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41200,7 +41200,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41319,7 +41319,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41376,7 +41376,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41433,7 +41433,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41490,7 +41490,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41547,7 +41547,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41609,7 +41609,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41666,7 +41666,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41723,7 +41723,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41780,7 +41780,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41842,7 +41842,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41904,7 +41904,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41961,7 +41961,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42018,7 +42018,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42080,7 +42080,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42142,7 +42142,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42199,7 +42199,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42261,7 +42261,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42318,7 +42318,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42375,7 +42375,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42432,7 +42432,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42489,7 +42489,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42546,7 +42546,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42603,7 +42603,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42665,7 +42665,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42779,7 +42779,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42836,7 +42836,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42893,7 +42893,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42950,7 +42950,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43007,7 +43007,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43064,7 +43064,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43121,7 +43121,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43235,7 +43235,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43292,7 +43292,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43349,7 +43349,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43406,7 +43406,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43463,7 +43463,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43520,7 +43520,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43577,7 +43577,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43634,7 +43634,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43696,7 +43696,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43758,7 +43758,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43815,7 +43815,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43872,7 +43872,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43929,7 +43929,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43986,7 +43986,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44043,7 +44043,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44100,7 +44100,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44157,7 +44157,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44214,7 +44214,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44271,7 +44271,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44328,7 +44328,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44385,7 +44385,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44447,7 +44447,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44504,7 +44504,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44566,7 +44566,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44628,7 +44628,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44690,7 +44690,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44747,7 +44747,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44804,7 +44804,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44866,7 +44866,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44923,7 +44923,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45332,7 +45332,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45394,7 +45394,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45456,7 +45456,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45513,7 +45513,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45575,7 +45575,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45637,7 +45637,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45699,7 +45699,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45761,7 +45761,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45823,7 +45823,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45880,7 +45880,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46004,7 +46004,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46418,7 +46418,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46480,7 +46480,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46537,7 +46537,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46594,7 +46594,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46656,7 +46656,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46713,7 +46713,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46775,7 +46775,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46894,7 +46894,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46956,7 +46956,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47018,7 +47018,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47080,7 +47080,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47142,7 +47142,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47204,7 +47204,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47266,7 +47266,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47328,7 +47328,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47385,7 +47385,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47447,7 +47447,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47509,7 +47509,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47571,7 +47571,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47633,7 +47633,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47695,7 +47695,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47757,7 +47757,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47819,7 +47819,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47881,7 +47881,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47938,7 +47938,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48000,7 +48000,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48057,7 +48057,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48114,7 +48114,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48171,7 +48171,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48228,7 +48228,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48285,7 +48285,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48342,7 +48342,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48399,7 +48399,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44944</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44103</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>43817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44109</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44412</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44132</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44498</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44747</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44433</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44501</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>44601</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44782</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44811</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>43670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>43739</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3770,7 +3770,7 @@
         <v>43781</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43816</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         <v>43817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>43997</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44470</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44494</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>44615</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
         <v>44720</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>44783</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>44795</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4754,7 +4754,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4844,7 +4844,7 @@
         <v>44834</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44897</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         <v>44993</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5114,7 +5114,7 @@
         <v>45061</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         <v>45097</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
         <v>45106</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         <v>43334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>43335</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>43336</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>43340</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         <v>43343</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         <v>43349</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         <v>43349</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         <v>43356</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43356</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>43364</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43382</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43398</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43402</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43403</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43409</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6663,7 +6663,7 @@
         <v>43411</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6720,7 +6720,7 @@
         <v>43413</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         <v>43417</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43425</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43427</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
         <v>43430</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43430</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43431</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>43432</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43433</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>43437</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43437</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>43438</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43438</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7620,7 +7620,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43439</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7734,7 +7734,7 @@
         <v>43439</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43441</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43441</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43444</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43447</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         <v>43447</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8138,7 +8138,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>43454</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8309,7 +8309,7 @@
         <v>43454</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>43461</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>43468</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8485,7 +8485,7 @@
         <v>43469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>43472</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>43473</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
         <v>43475</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         <v>43480</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8832,7 +8832,7 @@
         <v>43480</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8889,7 +8889,7 @@
         <v>43481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         <v>43482</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
         <v>43483</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9060,7 +9060,7 @@
         <v>43483</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         <v>43486</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9174,7 +9174,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9236,7 +9236,7 @@
         <v>43489</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9293,7 +9293,7 @@
         <v>43495</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9350,7 +9350,7 @@
         <v>43495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9521,7 +9521,7 @@
         <v>43497</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43497</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43505</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43507</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43511</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43511</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>43515</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43518</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10163,7 +10163,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>43523</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10277,7 +10277,7 @@
         <v>43524</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10334,7 +10334,7 @@
         <v>43535</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10396,7 +10396,7 @@
         <v>43538</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>43542</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>43551</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10567,7 +10567,7 @@
         <v>43553</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         <v>43560</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>43563</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10743,7 +10743,7 @@
         <v>43566</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43572</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10862,7 +10862,7 @@
         <v>43579</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10919,7 +10919,7 @@
         <v>43581</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43581</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11033,7 +11033,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11090,7 +11090,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         <v>43586</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         <v>43586</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11261,7 +11261,7 @@
         <v>43592</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
         <v>43592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11375,7 +11375,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11432,7 +11432,7 @@
         <v>43593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>43593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43594</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11608,7 +11608,7 @@
         <v>43595</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43598</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43598</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>43600</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>43621</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         <v>43626</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>43627</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>43627</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>43633</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>43633</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>43634</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>43634</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43641</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43642</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>43642</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12622,7 +12622,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43649</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43649</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>43650</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43651</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43655</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43658</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43661</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         <v>43661</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43668</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13222,7 +13222,7 @@
         <v>43677</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13284,7 +13284,7 @@
         <v>43684</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>43685</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13408,7 +13408,7 @@
         <v>43688</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13470,7 +13470,7 @@
         <v>43690</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>43690</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13594,7 +13594,7 @@
         <v>43691</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43696</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43696</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>43703</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43703</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>43704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>43704</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>43707</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>43710</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>43711</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>43712</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14365,7 +14365,7 @@
         <v>43713</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43713</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
         <v>43717</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43720</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14851,7 +14851,7 @@
         <v>43731</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43735</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43739</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43739</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>43745</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>43746</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>43746</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43747</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43756</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43758</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43758</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>43759</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43759</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15828,7 +15828,7 @@
         <v>43761</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>43762</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15947,7 +15947,7 @@
         <v>43767</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16004,7 +16004,7 @@
         <v>43768</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16061,7 +16061,7 @@
         <v>43768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>43776</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43780</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43781</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>43787</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>43787</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>43788</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>43788</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>43791</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>43797</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43797</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43809</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43809</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16832,7 +16832,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16889,7 +16889,7 @@
         <v>43815</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>43816</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
         <v>43816</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>43817</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17194,7 +17194,7 @@
         <v>43817</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17256,7 +17256,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17318,7 +17318,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17442,7 +17442,7 @@
         <v>43818</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>43833</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>43833</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17613,7 +17613,7 @@
         <v>43839</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17675,7 +17675,7 @@
         <v>43839</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>43840</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>43840</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17851,7 +17851,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17908,7 +17908,7 @@
         <v>43841</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43845</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43857</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43858</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43864</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43871</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>43871</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>43882</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>43910</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>43922</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>43922</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>43929</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>43930</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>43945</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18721,7 +18721,7 @@
         <v>43945</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18835,7 +18835,7 @@
         <v>43980</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>43983</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43984</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19021,7 +19021,7 @@
         <v>43985</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19083,7 +19083,7 @@
         <v>43985</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19197,7 +19197,7 @@
         <v>43987</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19259,7 +19259,7 @@
         <v>44004</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44006</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44006</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44011</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44014</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>44015</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         <v>44015</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44021</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>44021</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>44024</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44024</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44027</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44027</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44028</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44032</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44035</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44035</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20417,7 +20417,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>44054</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20541,7 +20541,7 @@
         <v>44055</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>44057</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>44057</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>44062</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44062</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44067</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44078</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>44081</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21022,7 +21022,7 @@
         <v>44083</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21079,7 +21079,7 @@
         <v>44085</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21141,7 +21141,7 @@
         <v>44091</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21198,7 +21198,7 @@
         <v>44095</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44095</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21384,7 +21384,7 @@
         <v>44098</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>44102</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>44103</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>44105</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21632,7 +21632,7 @@
         <v>44105</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44109</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44109</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>44110</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21937,7 +21937,7 @@
         <v>44116</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44120</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44120</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44123</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44123</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>44126</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>44127</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22542,7 +22542,7 @@
         <v>44132</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>44138</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44147</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44147</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22847,7 +22847,7 @@
         <v>44148</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>44151</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>44158</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23033,7 +23033,7 @@
         <v>44158</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23095,7 +23095,7 @@
         <v>44162</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23157,7 +23157,7 @@
         <v>44166</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44166</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23271,7 +23271,7 @@
         <v>44182</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23328,7 +23328,7 @@
         <v>44182</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23442,7 +23442,7 @@
         <v>44183</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>44201</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>44229</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>44277</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>44277</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23732,7 +23732,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23789,7 +23789,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
         <v>44282</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23903,7 +23903,7 @@
         <v>44323</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23960,7 +23960,7 @@
         <v>44323</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>44348</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24079,7 +24079,7 @@
         <v>44354</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44358</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44361</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24255,7 +24255,7 @@
         <v>44369</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24317,7 +24317,7 @@
         <v>44369</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44376</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24441,7 +24441,7 @@
         <v>44383</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>44386</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44386</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44391</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44392</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44393</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>44399</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>44399</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24984,7 +24984,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25046,7 +25046,7 @@
         <v>44400</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>44400</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25170,7 +25170,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>44403</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44403</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25403,7 +25403,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>44405</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25517,7 +25517,7 @@
         <v>44407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25579,7 +25579,7 @@
         <v>44412</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25636,7 +25636,7 @@
         <v>44412</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25693,7 +25693,7 @@
         <v>44424</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>44426</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44429</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44431</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44433</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44439</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44439</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44440</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44440</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44441</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>44447</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26360,7 +26360,7 @@
         <v>44454</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44459</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44459</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44462</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26665,7 +26665,7 @@
         <v>44462</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26727,7 +26727,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26789,7 +26789,7 @@
         <v>44463</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44466</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44469</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44469</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44473</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44473</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44475</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44476</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>44477</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27327,7 +27327,7 @@
         <v>44477</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44481</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>44484</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27503,7 +27503,7 @@
         <v>44484</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44489</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44490</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27741,7 +27741,7 @@
         <v>44491</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>44491</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44494</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27927,7 +27927,7 @@
         <v>44495</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27989,7 +27989,7 @@
         <v>44496</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28051,7 +28051,7 @@
         <v>44496</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>44498</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28294,7 +28294,7 @@
         <v>44500</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>44501</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44501</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28532,7 +28532,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44506</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44509</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44512</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28770,7 +28770,7 @@
         <v>44513</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28827,7 +28827,7 @@
         <v>44515</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>44518</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>44522</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>44526</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44526</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44529</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29184,7 +29184,7 @@
         <v>44529</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44531</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29303,7 +29303,7 @@
         <v>44531</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29417,7 +29417,7 @@
         <v>44534</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29474,7 +29474,7 @@
         <v>44537</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>44538</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29593,7 +29593,7 @@
         <v>44543</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29650,7 +29650,7 @@
         <v>44543</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         <v>44544</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29764,7 +29764,7 @@
         <v>44545</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         <v>44546</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29883,7 +29883,7 @@
         <v>44550</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29940,7 +29940,7 @@
         <v>44551</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29997,7 +29997,7 @@
         <v>44552</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30054,7 +30054,7 @@
         <v>44558</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30111,7 +30111,7 @@
         <v>44560</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30168,7 +30168,7 @@
         <v>44564</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30225,7 +30225,7 @@
         <v>44566</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30282,7 +30282,7 @@
         <v>44566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30339,7 +30339,7 @@
         <v>44571</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30401,7 +30401,7 @@
         <v>44571</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30525,7 +30525,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30587,7 +30587,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44578</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44578</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44580</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44581</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44585</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44585</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30996,7 +30996,7 @@
         <v>44594</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31053,7 +31053,7 @@
         <v>44603</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>44603</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44606</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31224,7 +31224,7 @@
         <v>44616</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31281,7 +31281,7 @@
         <v>44616</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>44620</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>44620</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31452,7 +31452,7 @@
         <v>44637</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31509,7 +31509,7 @@
         <v>44641</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31566,7 +31566,7 @@
         <v>44642</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31623,7 +31623,7 @@
         <v>44645</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31680,7 +31680,7 @@
         <v>44650</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31737,7 +31737,7 @@
         <v>44652</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31794,7 +31794,7 @@
         <v>44670</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31851,7 +31851,7 @@
         <v>44670</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31908,7 +31908,7 @@
         <v>44673</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31970,7 +31970,7 @@
         <v>44683</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32027,7 +32027,7 @@
         <v>44683</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32084,7 +32084,7 @@
         <v>44694</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44698</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44704</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32260,7 +32260,7 @@
         <v>44707</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>44711</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32379,7 +32379,7 @@
         <v>44711</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32436,7 +32436,7 @@
         <v>44719</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32493,7 +32493,7 @@
         <v>44726</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32550,7 +32550,7 @@
         <v>44729</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32612,7 +32612,7 @@
         <v>44733</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32669,7 +32669,7 @@
         <v>44733</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32726,7 +32726,7 @@
         <v>44735</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32783,7 +32783,7 @@
         <v>44735</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32840,7 +32840,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32897,7 +32897,7 @@
         <v>44742</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32959,7 +32959,7 @@
         <v>44743</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>44748</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>44749</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33145,7 +33145,7 @@
         <v>44749</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>44756</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44760</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44760</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33388,7 +33388,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33450,7 +33450,7 @@
         <v>44761</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44761</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>44776</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33626,7 +33626,7 @@
         <v>44777</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33683,7 +33683,7 @@
         <v>44777</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44783</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44783</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44784</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33931,7 +33931,7 @@
         <v>44788</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33988,7 +33988,7 @@
         <v>44788</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>44789</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44805</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34174,7 +34174,7 @@
         <v>44805</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34236,7 +34236,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34298,7 +34298,7 @@
         <v>44809</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34360,7 +34360,7 @@
         <v>44811</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>44812</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44820</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>44820</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44823</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>44826</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>44826</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35012,7 +35012,7 @@
         <v>44830</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35069,7 +35069,7 @@
         <v>44830</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35126,7 +35126,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44837</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35240,7 +35240,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35297,7 +35297,7 @@
         <v>44839</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44839</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35483,7 +35483,7 @@
         <v>44840</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44846</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35607,7 +35607,7 @@
         <v>44846</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44847</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44851</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35902,7 +35902,7 @@
         <v>44854</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35964,7 +35964,7 @@
         <v>44859</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>44859</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44861</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>44861</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36207,7 +36207,7 @@
         <v>44866</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>44866</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>44867</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44873</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>44874</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>44874</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36668,7 +36668,7 @@
         <v>44875</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>44875</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36854,7 +36854,7 @@
         <v>44876</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36916,7 +36916,7 @@
         <v>44880</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>44881</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>44881</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37092,7 +37092,7 @@
         <v>44882</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37149,7 +37149,7 @@
         <v>44882</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37206,7 +37206,7 @@
         <v>44883</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37263,7 +37263,7 @@
         <v>44886</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37325,7 +37325,7 @@
         <v>44887</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37382,7 +37382,7 @@
         <v>44887</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37444,7 +37444,7 @@
         <v>44888</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44888</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>44889</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>44890</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37868,7 +37868,7 @@
         <v>44890</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>44893</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>44894</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38054,7 +38054,7 @@
         <v>44895</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38116,7 +38116,7 @@
         <v>44895</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38178,7 +38178,7 @@
         <v>44896</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>44900</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38292,7 +38292,7 @@
         <v>44900</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38349,7 +38349,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38406,7 +38406,7 @@
         <v>44901</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>44901</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>44902</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>44903</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>44903</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>44907</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44908</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>44908</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>44909</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38949,7 +38949,7 @@
         <v>44909</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39006,7 +39006,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39063,7 +39063,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39125,7 +39125,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39249,7 +39249,7 @@
         <v>44910</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>44910</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>44911</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44911</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39492,7 +39492,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44915</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44917</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44917</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>44921</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39787,7 +39787,7 @@
         <v>44921</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39844,7 +39844,7 @@
         <v>44924</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39901,7 +39901,7 @@
         <v>44924</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39963,7 +39963,7 @@
         <v>44930</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44930</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44931</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44933</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40201,7 +40201,7 @@
         <v>44934</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44936</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40320,7 +40320,7 @@
         <v>44936</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44943</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40439,7 +40439,7 @@
         <v>44945</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>44950</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44951</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44952</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44952</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40739,7 +40739,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40858,7 +40858,7 @@
         <v>44953</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40915,7 +40915,7 @@
         <v>44956</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40972,7 +40972,7 @@
         <v>44956</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41029,7 +41029,7 @@
         <v>44958</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41091,7 +41091,7 @@
         <v>44960</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>44967</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>44970</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41329,7 +41329,7 @@
         <v>44980</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41386,7 +41386,7 @@
         <v>44980</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41443,7 +41443,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41500,7 +41500,7 @@
         <v>44981</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41557,7 +41557,7 @@
         <v>44981</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41619,7 +41619,7 @@
         <v>44985</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41676,7 +41676,7 @@
         <v>44985</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41733,7 +41733,7 @@
         <v>44987</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41790,7 +41790,7 @@
         <v>44988</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41852,7 +41852,7 @@
         <v>44991</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>44992</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>44992</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42028,7 +42028,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42090,7 +42090,7 @@
         <v>44993</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42209,7 +42209,7 @@
         <v>44995</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44998</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42328,7 +42328,7 @@
         <v>44998</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42385,7 +42385,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42442,7 +42442,7 @@
         <v>44999</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42499,7 +42499,7 @@
         <v>44999</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42556,7 +42556,7 @@
         <v>45006</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42613,7 +42613,7 @@
         <v>45013</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42675,7 +42675,7 @@
         <v>45014</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42732,7 +42732,7 @@
         <v>45014</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42789,7 +42789,7 @@
         <v>45015</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42846,7 +42846,7 @@
         <v>45015</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42903,7 +42903,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42960,7 +42960,7 @@
         <v>45020</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43017,7 +43017,7 @@
         <v>45020</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43074,7 +43074,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43131,7 +43131,7 @@
         <v>45021</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43188,7 +43188,7 @@
         <v>45021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43245,7 +43245,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43302,7 +43302,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43359,7 +43359,7 @@
         <v>45035</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43416,7 +43416,7 @@
         <v>45035</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43473,7 +43473,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43530,7 +43530,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43644,7 +43644,7 @@
         <v>45040</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>45041</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45041</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45043</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>45057</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>45057</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>45058</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45058</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>45063</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>45063</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44395,7 +44395,7 @@
         <v>45069</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45072</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45075</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44576,7 +44576,7 @@
         <v>45075</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44638,7 +44638,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44700,7 +44700,7 @@
         <v>45076</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45077</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45078</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44876,7 +44876,7 @@
         <v>45079</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44933,7 +44933,7 @@
         <v>45082</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44995,7 +44995,7 @@
         <v>45084</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45052,7 +45052,7 @@
         <v>45085</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45109,7 +45109,7 @@
         <v>45085</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45166,7 +45166,7 @@
         <v>45086</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45223,7 +45223,7 @@
         <v>45086</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45280,7 +45280,7 @@
         <v>45090</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45342,7 +45342,7 @@
         <v>45091</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45404,7 +45404,7 @@
         <v>45091</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45466,7 +45466,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45093</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45647,7 +45647,7 @@
         <v>45093</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45709,7 +45709,7 @@
         <v>45097</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45097</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45833,7 +45833,7 @@
         <v>45098</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45098</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46076,7 +46076,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46138,7 +46138,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>45101</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46252,7 +46252,7 @@
         <v>45101</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46309,7 +46309,7 @@
         <v>45103</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46366,7 +46366,7 @@
         <v>45103</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46428,7 +46428,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45104</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46604,7 +46604,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46666,7 +46666,7 @@
         <v>45107</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46723,7 +46723,7 @@
         <v>45107</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46842,7 +46842,7 @@
         <v>45117</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>45117</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>45124</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47028,7 +47028,7 @@
         <v>45124</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47090,7 +47090,7 @@
         <v>45127</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47152,7 +47152,7 @@
         <v>45127</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47214,7 +47214,7 @@
         <v>45135</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47276,7 +47276,7 @@
         <v>45135</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47338,7 +47338,7 @@
         <v>45138</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         <v>45140</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47457,7 +47457,7 @@
         <v>45140</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47519,7 +47519,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47581,7 +47581,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47643,7 +47643,7 @@
         <v>45142</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47705,7 +47705,7 @@
         <v>45142</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47767,7 +47767,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47829,7 +47829,7 @@
         <v>45145</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47891,7 +47891,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45146</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45149</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48124,7 +48124,7 @@
         <v>45152</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48181,7 +48181,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48238,7 +48238,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48295,7 +48295,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48352,7 +48352,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48409,7 +48409,7 @@
         <v>45154</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44944</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44103</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>43817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44109</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44412</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44132</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44498</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44747</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44433</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44501</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>44601</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44782</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44811</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45142</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43670</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43739</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43816</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43817</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43997</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44470</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44615</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44720</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44783</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44795</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44834</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44897</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44993</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45061</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>45106</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45188</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43335</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43336</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43340</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43343</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43349</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43349</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43356</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43360</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43378</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>43398</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43413</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43417</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43425</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43427</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43439</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43441</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>43454</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43454</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>43468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43472</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43479</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43480</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43480</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43483</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43483</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43486</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43489</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43495</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43495</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43511</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43511</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43523</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43524</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43535</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43542</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43551</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43553</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43560</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43563</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43566</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>43572</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43579</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43581</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43581</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43586</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43586</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43595</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>43598</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>43600</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43621</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43626</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43627</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43627</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>43633</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43633</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43634</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>43634</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43642</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43642</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43649</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43649</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43650</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43655</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43658</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43661</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43661</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>43677</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>43688</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43690</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43690</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>43691</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43696</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43696</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43710</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43712</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>43720</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43731</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43735</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>43745</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43746</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43758</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43758</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43759</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43761</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43762</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43768</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43768</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43780</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>43791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43797</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43797</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43809</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43809</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>43816</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43816</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>43817</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43817</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>43818</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>43833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>43833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>43839</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43840</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43841</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43871</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43871</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43910</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43922</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43922</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>43929</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43945</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43980</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43983</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>43984</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43985</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43985</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43987</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44004</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44006</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44006</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>44007</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>44011</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44021</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44021</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44024</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44024</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44027</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44028</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44032</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44035</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44035</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>44054</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44057</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44062</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44062</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>44067</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44081</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44083</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44085</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44095</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44102</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44103</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44105</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44109</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44109</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44110</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44116</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44120</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44123</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44123</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44126</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44127</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44132</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44138</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44147</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>44147</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44151</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44158</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44162</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>44166</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>44166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>44182</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>44182</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>44183</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>44201</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44229</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44277</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44277</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44282</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44323</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44323</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44354</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44358</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44361</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44369</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44369</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44376</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44383</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44386</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44386</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44391</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44392</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44393</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>44399</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44399</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44400</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44400</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>44403</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>44403</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>44405</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>44407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44424</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44426</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44429</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44431</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44433</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44439</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44439</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44440</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44441</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44447</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44454</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44459</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44459</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44462</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44462</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44463</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>44466</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>44469</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>44469</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>44475</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44476</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>44477</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>44477</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>44481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44484</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44484</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44489</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44490</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44491</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44491</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>44494</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44495</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44496</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44496</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44498</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44500</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44501</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44501</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44506</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44509</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>44512</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>44513</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>44515</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44518</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44522</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44526</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44526</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44529</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44529</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44531</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44531</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44534</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44538</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44543</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44543</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44545</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30007,7 +30007,7 @@
         <v>44546</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44551</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44552</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44558</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44560</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>44564</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44566</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>44566</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44571</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44578</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>44580</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>44581</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>44585</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>44585</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>44594</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>44603</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44603</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>44606</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44616</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>44616</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         <v>44620</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         <v>44620</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44637</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>44641</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>44642</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>44645</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>44650</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44652</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>44670</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>44670</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>44673</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>44683</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>44683</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>44694</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>44698</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>44704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>44707</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>44711</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>44711</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32617,7 +32617,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>44726</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>44729</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>44733</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>44733</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>44742</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>44748</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44749</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44749</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44756</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44760</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>44760</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44761</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44761</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44776</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44777</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44777</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44783</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33988,7 +33988,7 @@
         <v>44783</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>44784</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44788</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44788</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44789</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>44809</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44811</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44812</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34665,7 +34665,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>44820</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>44820</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>44823</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44826</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44826</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44830</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44830</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>44837</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44846</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>44846</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44847</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44851</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44854</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>44859</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>44859</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>44861</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>44866</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>44866</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>44867</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44873</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>44874</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>44874</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>44875</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>44875</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>44876</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>44880</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>44881</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>44881</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37273,7 +37273,7 @@
         <v>44882</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44882</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         <v>44883</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37444,7 +37444,7 @@
         <v>44886</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44887</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44887</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44888</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44888</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
         <v>44889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44890</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44890</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44893</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44894</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>44895</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44895</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38359,7 +38359,7 @@
         <v>44896</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44900</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>44900</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>44901</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>44901</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44902</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44903</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44903</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44907</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44908</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>44908</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39068,7 +39068,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>44909</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>44909</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44910</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44910</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44911</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44911</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>44915</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44917</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44917</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44921</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44921</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44924</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44930</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44930</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44931</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>44933</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44934</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40444,7 +40444,7 @@
         <v>44936</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>44936</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44943</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44945</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44950</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44951</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44952</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44952</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>44953</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44956</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44956</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>44958</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>44960</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41334,7 +41334,7 @@
         <v>44963</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44967</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44970</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44980</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44980</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44981</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44981</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44985</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44985</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>44987</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>44988</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44991</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42095,7 +42095,7 @@
         <v>44992</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>44992</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42209,7 +42209,7 @@
         <v>44993</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44993</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44994</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44995</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44998</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44998</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44999</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44999</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>45006</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>45013</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45014</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45014</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45015</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45015</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45021</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45035</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43949,7 +43949,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44006,7 +44006,7 @@
         <v>45041</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>45041</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44120,7 +44120,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44177,7 +44177,7 @@
         <v>45057</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44234,7 +44234,7 @@
         <v>45057</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44291,7 +44291,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>45058</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>45058</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>45063</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44519,7 +44519,7 @@
         <v>45063</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44576,7 +44576,7 @@
         <v>45069</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44638,7 +44638,7 @@
         <v>45072</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45075</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45075</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45076</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44938,7 +44938,7 @@
         <v>45077</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44995,7 +44995,7 @@
         <v>45078</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45057,7 +45057,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45114,7 +45114,7 @@
         <v>45082</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45176,7 +45176,7 @@
         <v>45084</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45233,7 +45233,7 @@
         <v>45085</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45086</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45404,7 +45404,7 @@
         <v>45086</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>45090</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45647,7 +45647,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45091</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45097</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45097</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46133,7 +46133,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46257,7 +46257,7 @@
         <v>45098</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45098</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45101</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45101</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45103</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45103</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45104</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46847,7 +46847,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>45107</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>45107</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47023,7 +47023,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>45117</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>45124</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>45127</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>45127</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         <v>45135</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47457,7 +47457,7 @@
         <v>45135</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47519,7 +47519,7 @@
         <v>45138</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47576,7 +47576,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47638,7 +47638,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>45140</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47762,7 +47762,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47824,7 +47824,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47886,7 +47886,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45145</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>45146</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48186,7 +48186,7 @@
         <v>45149</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45152</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45154</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45187</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43336</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>44902</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43903</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44944</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>44103</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>43817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>44109</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         <v>44433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>44412</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
         <v>44132</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44945</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>44447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44498</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44501</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44747</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2595,7 +2595,7 @@
         <v>44433</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         <v>44501</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>44601</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         <v>44706</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         <v>44782</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44811</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44902</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
         <v>44964</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>44972</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3495,7 +3495,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3586,7 +3586,7 @@
         <v>45142</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>43670</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43739</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>43781</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>43816</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43817</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         <v>43997</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>44369</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>44470</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44494</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44615</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>44720</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>44783</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         <v>44795</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>44795</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44834</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44897</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44993</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45061</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>45097</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         <v>45106</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45188</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43334</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43335</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43336</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5793,7 +5793,7 @@
         <v>43340</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
         <v>43343</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         <v>43349</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         <v>43349</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         <v>43356</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>43356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43360</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
         <v>43364</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>43378</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43382</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43395</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>43398</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43402</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43403</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43409</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
         <v>43410</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6844,7 +6844,7 @@
         <v>43411</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         <v>43413</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43417</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         <v>43425</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43427</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43430</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>43432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43433</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43437</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7677,7 +7677,7 @@
         <v>43438</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
         <v>43439</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         <v>43441</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43441</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43444</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>43447</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8433,7 +8433,7 @@
         <v>43454</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>43454</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8547,7 +8547,7 @@
         <v>43461</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
         <v>43468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>43469</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>43472</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43473</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43475</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43479</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43480</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43480</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43482</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43483</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43483</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43486</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9417,7 +9417,7 @@
         <v>43489</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9474,7 +9474,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43495</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9645,7 +9645,7 @@
         <v>43495</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9759,7 +9759,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>43505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9878,7 +9878,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>43511</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43511</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10054,7 +10054,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10173,7 +10173,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10287,7 +10287,7 @@
         <v>43518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>43518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10401,7 +10401,7 @@
         <v>43523</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10458,7 +10458,7 @@
         <v>43524</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10515,7 +10515,7 @@
         <v>43535</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>43542</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>43551</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>43553</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10805,7 +10805,7 @@
         <v>43560</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>43563</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>43566</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>43572</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>43579</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43581</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         <v>43581</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11328,7 +11328,7 @@
         <v>43586</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11385,7 +11385,7 @@
         <v>43586</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11442,7 +11442,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11499,7 +11499,7 @@
         <v>43592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11556,7 +11556,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11613,7 +11613,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11670,7 +11670,7 @@
         <v>43593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11727,7 +11727,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>43595</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>43598</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>43600</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>43621</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>43626</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>43627</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>43627</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>43633</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>43633</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>43634</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>43634</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12503,7 +12503,7 @@
         <v>43641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12560,7 +12560,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12679,7 +12679,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>43642</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>43642</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>43649</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43649</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43650</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43655</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43658</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43661</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13279,7 +13279,7 @@
         <v>43661</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>43677</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13465,7 +13465,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13527,7 +13527,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>43688</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13651,7 +13651,7 @@
         <v>43690</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>43690</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>43691</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>43696</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>43696</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14194,7 +14194,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>43710</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>43712</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14608,7 +14608,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14670,7 +14670,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14727,7 +14727,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14908,7 +14908,7 @@
         <v>43720</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>43731</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>43735</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15280,7 +15280,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15342,7 +15342,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>43745</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43746</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15590,7 +15590,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>43747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15709,7 +15709,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15771,7 +15771,7 @@
         <v>43758</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>43758</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>43759</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>43761</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16071,7 +16071,7 @@
         <v>43762</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16128,7 +16128,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         <v>43768</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>43768</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>43780</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>43791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>43797</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>43797</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>43809</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>43809</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>43815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17189,7 +17189,7 @@
         <v>43816</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17251,7 +17251,7 @@
         <v>43816</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17313,7 +17313,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17375,7 +17375,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17499,7 +17499,7 @@
         <v>43817</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         <v>43817</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         <v>43818</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17680,7 +17680,7 @@
         <v>43833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17737,7 +17737,7 @@
         <v>43833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17794,7 +17794,7 @@
         <v>43839</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>43840</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>43841</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18270,7 +18270,7 @@
         <v>43858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43871</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43871</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18555,7 +18555,7 @@
         <v>43910</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18612,7 +18612,7 @@
         <v>43922</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18669,7 +18669,7 @@
         <v>43922</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>43929</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18788,7 +18788,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18902,7 +18902,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18959,7 +18959,7 @@
         <v>43945</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>43980</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>43983</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>43984</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>43985</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>43985</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>43987</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>44004</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>44006</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>44006</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19626,7 +19626,7 @@
         <v>44007</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19683,7 +19683,7 @@
         <v>44011</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19745,7 +19745,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19869,7 +19869,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44021</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44021</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44024</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20174,7 +20174,7 @@
         <v>44024</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>44027</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44028</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44032</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44035</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20598,7 +20598,7 @@
         <v>44035</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>44054</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>44057</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>44062</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>44062</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>44067</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21084,7 +21084,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44081</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44083</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44085</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21322,7 +21322,7 @@
         <v>44091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44095</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44102</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44103</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21813,7 +21813,7 @@
         <v>44105</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44109</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21994,7 +21994,7 @@
         <v>44109</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44110</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22118,7 +22118,7 @@
         <v>44116</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44120</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44120</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22413,7 +22413,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>44123</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>44123</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22599,7 +22599,7 @@
         <v>44126</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>44127</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22723,7 +22723,7 @@
         <v>44132</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22785,7 +22785,7 @@
         <v>44138</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22842,7 +22842,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22904,7 +22904,7 @@
         <v>44147</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>44147</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23090,7 +23090,7 @@
         <v>44151</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23152,7 +23152,7 @@
         <v>44158</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23214,7 +23214,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23276,7 +23276,7 @@
         <v>44162</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23338,7 +23338,7 @@
         <v>44166</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23395,7 +23395,7 @@
         <v>44166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23452,7 +23452,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23509,7 +23509,7 @@
         <v>44182</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>44182</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>44183</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23680,7 +23680,7 @@
         <v>44201</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>44229</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>44277</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23970,7 +23970,7 @@
         <v>44277</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24027,7 +24027,7 @@
         <v>44282</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24084,7 +24084,7 @@
         <v>44323</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24141,7 +24141,7 @@
         <v>44323</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>44354</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>44358</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>44361</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>44369</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24498,7 +24498,7 @@
         <v>44369</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>44376</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24622,7 +24622,7 @@
         <v>44383</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>44386</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>44386</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24855,7 +24855,7 @@
         <v>44391</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>44392</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44393</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25041,7 +25041,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25103,7 +25103,7 @@
         <v>44399</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
         <v>44399</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25227,7 +25227,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25289,7 +25289,7 @@
         <v>44400</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25351,7 +25351,7 @@
         <v>44400</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>44403</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>44403</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>44405</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>44407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>44424</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44426</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44429</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>44431</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>44433</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44439</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>44439</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>44440</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>44441</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>44447</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44454</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44459</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26722,7 +26722,7 @@
         <v>44459</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26784,7 +26784,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26846,7 +26846,7 @@
         <v>44462</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44462</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>44463</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>44466</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>44469</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>44469</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27203,7 +27203,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27260,7 +27260,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>44475</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27384,7 +27384,7 @@
         <v>44476</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27446,7 +27446,7 @@
         <v>44477</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27508,7 +27508,7 @@
         <v>44477</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27565,7 +27565,7 @@
         <v>44481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27684,7 +27684,7 @@
         <v>44484</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>44484</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>44489</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>44490</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>44491</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27984,7 +27984,7 @@
         <v>44491</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28046,7 +28046,7 @@
         <v>44494</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28108,7 +28108,7 @@
         <v>44495</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28170,7 +28170,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28232,7 +28232,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28289,7 +28289,7 @@
         <v>44496</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28351,7 +28351,7 @@
         <v>44496</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>44498</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28475,7 +28475,7 @@
         <v>44500</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28537,7 +28537,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28594,7 +28594,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28651,7 +28651,7 @@
         <v>44501</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28713,7 +28713,7 @@
         <v>44501</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>44506</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>44509</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>44512</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>44513</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>44515</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>44518</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29127,7 +29127,7 @@
         <v>44522</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>44526</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29246,7 +29246,7 @@
         <v>44526</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29308,7 +29308,7 @@
         <v>44529</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29365,7 +29365,7 @@
         <v>44529</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29427,7 +29427,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29484,7 +29484,7 @@
         <v>44531</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29541,7 +29541,7 @@
         <v>44531</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>44534</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29655,7 +29655,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44538</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29774,7 +29774,7 @@
         <v>44543</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29831,7 +29831,7 @@
         <v>44543</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29945,7 +29945,7 @@
         <v>44545</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30007,7 +30007,7 @@
         <v>44546</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>44551</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>44552</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>44558</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>44560</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30349,7 +30349,7 @@
         <v>44564</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30406,7 +30406,7 @@
         <v>44566</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30463,7 +30463,7 @@
         <v>44566</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30520,7 +30520,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30582,7 +30582,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30644,7 +30644,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>44571</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44578</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>44580</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>44581</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>44585</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>44585</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>44594</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>44603</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44603</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>44606</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44616</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31462,7 +31462,7 @@
         <v>44616</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         <v>44620</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         <v>44620</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44637</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>44641</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31747,7 +31747,7 @@
         <v>44642</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31804,7 +31804,7 @@
         <v>44645</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>44650</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44652</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>44670</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>44670</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32089,7 +32089,7 @@
         <v>44673</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32151,7 +32151,7 @@
         <v>44683</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32208,7 +32208,7 @@
         <v>44683</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>44694</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32322,7 +32322,7 @@
         <v>44698</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>44704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>44707</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>44711</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>44711</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32617,7 +32617,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32674,7 +32674,7 @@
         <v>44726</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32731,7 +32731,7 @@
         <v>44729</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>44733</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>44733</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>44742</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>44748</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33264,7 +33264,7 @@
         <v>44749</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33326,7 +33326,7 @@
         <v>44749</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33383,7 +33383,7 @@
         <v>44756</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33445,7 +33445,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33507,7 +33507,7 @@
         <v>44760</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33569,7 +33569,7 @@
         <v>44760</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44761</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44761</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33750,7 +33750,7 @@
         <v>44776</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33807,7 +33807,7 @@
         <v>44777</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33864,7 +33864,7 @@
         <v>44777</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44783</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33988,7 +33988,7 @@
         <v>44783</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34050,7 +34050,7 @@
         <v>44784</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34112,7 +34112,7 @@
         <v>44788</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34169,7 +34169,7 @@
         <v>44788</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34231,7 +34231,7 @@
         <v>44789</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34293,7 +34293,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34355,7 +34355,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34417,7 +34417,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>44809</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44811</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>44812</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34665,7 +34665,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>44820</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>44820</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>44823</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44826</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44826</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44830</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44830</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>44837</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35540,7 +35540,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35788,7 +35788,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35845,7 +35845,7 @@
         <v>44846</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>44846</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>44847</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>44851</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36083,7 +36083,7 @@
         <v>44854</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>44859</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>44859</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>44861</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36326,7 +36326,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36388,7 +36388,7 @@
         <v>44866</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>44866</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>44867</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36559,7 +36559,7 @@
         <v>44873</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36616,7 +36616,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36673,7 +36673,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36730,7 +36730,7 @@
         <v>44874</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36787,7 +36787,7 @@
         <v>44874</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>44875</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36973,7 +36973,7 @@
         <v>44875</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37035,7 +37035,7 @@
         <v>44876</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37097,7 +37097,7 @@
         <v>44880</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37154,7 +37154,7 @@
         <v>44881</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37216,7 +37216,7 @@
         <v>44881</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37273,7 +37273,7 @@
         <v>44882</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37330,7 +37330,7 @@
         <v>44882</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37387,7 +37387,7 @@
         <v>44883</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37444,7 +37444,7 @@
         <v>44886</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>44887</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37563,7 +37563,7 @@
         <v>44887</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
         <v>44888</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>44888</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
         <v>44889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>44890</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>44890</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>44893</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>44894</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>44895</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>44895</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38359,7 +38359,7 @@
         <v>44896</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38416,7 +38416,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38473,7 +38473,7 @@
         <v>44900</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>44900</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>44901</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>44901</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>44902</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>44903</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>44903</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>44907</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>44908</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39011,7 +39011,7 @@
         <v>44908</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39068,7 +39068,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39130,7 +39130,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39187,7 +39187,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39244,7 +39244,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>44909</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39368,7 +39368,7 @@
         <v>44909</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39430,7 +39430,7 @@
         <v>44910</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39487,7 +39487,7 @@
         <v>44910</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39549,7 +39549,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39611,7 +39611,7 @@
         <v>44911</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39673,7 +39673,7 @@
         <v>44911</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>44915</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39792,7 +39792,7 @@
         <v>44917</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39854,7 +39854,7 @@
         <v>44917</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39911,7 +39911,7 @@
         <v>44921</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39968,7 +39968,7 @@
         <v>44921</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40025,7 +40025,7 @@
         <v>44924</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40082,7 +40082,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40144,7 +40144,7 @@
         <v>44930</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40206,7 +40206,7 @@
         <v>44930</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40263,7 +40263,7 @@
         <v>44931</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40325,7 +40325,7 @@
         <v>44933</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40382,7 +40382,7 @@
         <v>44934</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40444,7 +40444,7 @@
         <v>44936</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40501,7 +40501,7 @@
         <v>44936</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40563,7 +40563,7 @@
         <v>44943</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>44945</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40682,7 +40682,7 @@
         <v>44950</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40744,7 +40744,7 @@
         <v>44951</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40801,7 +40801,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40863,7 +40863,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40920,7 +40920,7 @@
         <v>44952</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40982,7 +40982,7 @@
         <v>44952</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41039,7 +41039,7 @@
         <v>44953</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41096,7 +41096,7 @@
         <v>44956</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41153,7 +41153,7 @@
         <v>44956</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41210,7 +41210,7 @@
         <v>44958</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41272,7 +41272,7 @@
         <v>44960</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41334,7 +41334,7 @@
         <v>44963</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41391,7 +41391,7 @@
         <v>44967</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41453,7 +41453,7 @@
         <v>44970</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41510,7 +41510,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41567,7 +41567,7 @@
         <v>44980</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41624,7 +41624,7 @@
         <v>44980</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41681,7 +41681,7 @@
         <v>44981</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41738,7 +41738,7 @@
         <v>44981</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41800,7 +41800,7 @@
         <v>44985</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41857,7 +41857,7 @@
         <v>44985</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41914,7 +41914,7 @@
         <v>44987</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41971,7 +41971,7 @@
         <v>44988</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42033,7 +42033,7 @@
         <v>44991</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42095,7 +42095,7 @@
         <v>44992</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42152,7 +42152,7 @@
         <v>44992</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42209,7 +42209,7 @@
         <v>44993</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42271,7 +42271,7 @@
         <v>44993</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42333,7 +42333,7 @@
         <v>44994</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42390,7 +42390,7 @@
         <v>44995</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42452,7 +42452,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42509,7 +42509,7 @@
         <v>44998</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42566,7 +42566,7 @@
         <v>44998</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42623,7 +42623,7 @@
         <v>44999</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42680,7 +42680,7 @@
         <v>44999</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42737,7 +42737,7 @@
         <v>45006</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42794,7 +42794,7 @@
         <v>45013</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42856,7 +42856,7 @@
         <v>45014</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42913,7 +42913,7 @@
         <v>45014</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42970,7 +42970,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43027,7 +43027,7 @@
         <v>45015</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43084,7 +43084,7 @@
         <v>45015</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43141,7 +43141,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43198,7 +43198,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43255,7 +43255,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43312,7 +43312,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43369,7 +43369,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43426,7 +43426,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43483,7 +43483,7 @@
         <v>45021</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43597,7 +43597,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43654,7 +43654,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43768,7 +43768,7 @@
         <v>45035</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43887,7 +43887,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43949,7 +43949,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44006,7 +44006,7 @@
         <v>45041</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44063,7 +44063,7 @@
         <v>45041</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44120,7 +44120,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44177,7 +44177,7 @@
         <v>45057</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44234,7 +44234,7 @@
         <v>45057</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44291,7 +44291,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44348,7 +44348,7 @@
         <v>45058</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44405,7 +44405,7 @@
         <v>45058</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44462,7 +44462,7 @@
         <v>45063</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44519,7 +44519,7 @@
         <v>45063</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44576,7 +44576,7 @@
         <v>45069</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44638,7 +44638,7 @@
         <v>45072</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44757,7 +44757,7 @@
         <v>45075</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44819,7 +44819,7 @@
         <v>45075</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44881,7 +44881,7 @@
         <v>45076</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44938,7 +44938,7 @@
         <v>45077</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44995,7 +44995,7 @@
         <v>45078</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45057,7 +45057,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45114,7 +45114,7 @@
         <v>45082</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45176,7 +45176,7 @@
         <v>45084</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45233,7 +45233,7 @@
         <v>45085</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45290,7 +45290,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45347,7 +45347,7 @@
         <v>45086</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45404,7 +45404,7 @@
         <v>45086</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45461,7 +45461,7 @@
         <v>45090</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45523,7 +45523,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45647,7 +45647,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45091</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45097</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45097</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46014,7 +46014,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46071,7 +46071,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46133,7 +46133,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46195,7 +46195,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46257,7 +46257,7 @@
         <v>45098</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46319,7 +46319,7 @@
         <v>45098</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46376,7 +46376,7 @@
         <v>45101</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46433,7 +46433,7 @@
         <v>45101</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46490,7 +46490,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46547,7 +46547,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46609,7 +46609,7 @@
         <v>45103</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46671,7 +46671,7 @@
         <v>45103</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46728,7 +46728,7 @@
         <v>45104</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46785,7 +46785,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46847,7 +46847,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46904,7 +46904,7 @@
         <v>45107</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>45107</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47023,7 +47023,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47085,7 +47085,7 @@
         <v>45117</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47147,7 +47147,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47209,7 +47209,7 @@
         <v>45124</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47271,7 +47271,7 @@
         <v>45127</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47333,7 +47333,7 @@
         <v>45127</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47395,7 +47395,7 @@
         <v>45135</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47457,7 +47457,7 @@
         <v>45135</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47519,7 +47519,7 @@
         <v>45138</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47576,7 +47576,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47638,7 +47638,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47700,7 +47700,7 @@
         <v>45140</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47762,7 +47762,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47824,7 +47824,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47886,7 +47886,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47948,7 +47948,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45145</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>45146</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48186,7 +48186,7 @@
         <v>45149</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48471,7 +48471,7 @@
         <v>45152</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48528,7 +48528,7 @@
         <v>45154</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45187</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43903</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43336</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44944</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44103</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44109</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44412</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>44132</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44945</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44498</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44747</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44601</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44706</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44782</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>44811</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44902</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44964</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44972</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>45016</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45103</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45142</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>43670</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43739</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43781</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43997</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44369</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44615</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44720</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44795</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>44795</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44834</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44897</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44993</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45061</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>45106</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45188</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43335</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43336</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43343</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43349</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43349</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43360</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43364</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43382</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43395</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43411</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43417</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43425</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43427</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43438</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43439</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>43441</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43441</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43447</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43454</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43454</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43472</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43479</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43480</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43480</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43483</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43483</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43486</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>43489</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43495</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43495</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43511</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43511</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43523</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43524</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43535</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43542</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43551</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43553</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43560</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>43563</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43566</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43572</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43579</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43581</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43581</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43586</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>43586</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>43595</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43598</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43600</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43621</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43626</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43627</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43627</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43633</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43633</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43634</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43634</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43642</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43642</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43649</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>43649</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43650</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43655</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43658</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43661</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43661</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>43677</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43688</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43690</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43690</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43691</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43696</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>43696</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43710</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43712</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>43720</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43731</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43735</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15377,7 +15377,7 @@
         <v>43739</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>43745</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15501,7 +15501,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>43746</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15625,7 +15625,7 @@
         <v>43746</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43747</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>43756</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43758</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15868,7 +15868,7 @@
         <v>43758</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>43759</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>43759</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>43761</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16106,7 +16106,7 @@
         <v>43762</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16163,7 +16163,7 @@
         <v>43767</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43768</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43768</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>43776</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43780</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>43781</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43787</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>43787</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16634,7 +16634,7 @@
         <v>43788</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16691,7 +16691,7 @@
         <v>43788</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>43791</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>43797</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16872,7 +16872,7 @@
         <v>43797</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16934,7 +16934,7 @@
         <v>43809</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16991,7 +16991,7 @@
         <v>43809</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>43809</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>43815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>43816</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>43816</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>43816</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>43817</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17410,7 +17410,7 @@
         <v>43817</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17472,7 +17472,7 @@
         <v>43817</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>43817</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17596,7 +17596,7 @@
         <v>43817</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17658,7 +17658,7 @@
         <v>43818</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17715,7 +17715,7 @@
         <v>43833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>43833</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17829,7 +17829,7 @@
         <v>43839</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17891,7 +17891,7 @@
         <v>43839</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>43840</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>43840</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>43840</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>43841</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43845</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18243,7 +18243,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>43858</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18419,7 +18419,7 @@
         <v>43871</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18476,7 +18476,7 @@
         <v>43871</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18533,7 +18533,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18590,7 +18590,7 @@
         <v>43910</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18647,7 +18647,7 @@
         <v>43922</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>43922</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         <v>43929</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43930</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43945</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43945</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43945</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43980</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43983</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>43984</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>43985</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19299,7 +19299,7 @@
         <v>43985</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>43985</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19413,7 +19413,7 @@
         <v>43987</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>44004</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>44006</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44006</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19661,7 +19661,7 @@
         <v>44007</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19718,7 +19718,7 @@
         <v>44011</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19780,7 +19780,7 @@
         <v>44014</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19842,7 +19842,7 @@
         <v>44015</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>44015</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>44021</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20028,7 +20028,7 @@
         <v>44021</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20085,7 +20085,7 @@
         <v>44021</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20147,7 +20147,7 @@
         <v>44024</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20209,7 +20209,7 @@
         <v>44024</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44027</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>44027</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>44028</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>44032</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20509,7 +20509,7 @@
         <v>44035</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20571,7 +20571,7 @@
         <v>44035</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20633,7 +20633,7 @@
         <v>44035</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44054</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44055</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20819,7 +20819,7 @@
         <v>44057</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20881,7 +20881,7 @@
         <v>44057</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20943,7 +20943,7 @@
         <v>44062</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44062</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44067</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44078</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21181,7 +21181,7 @@
         <v>44081</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>44083</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21295,7 +21295,7 @@
         <v>44085</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21357,7 +21357,7 @@
         <v>44091</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21414,7 +21414,7 @@
         <v>44095</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>44095</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         <v>44095</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>44098</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>44102</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44103</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>44105</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44105</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>44109</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>44109</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22029,7 +22029,7 @@
         <v>44109</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44110</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44116</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44120</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44120</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44120</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         <v>44120</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44123</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22510,7 +22510,7 @@
         <v>44123</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22572,7 +22572,7 @@
         <v>44123</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22634,7 +22634,7 @@
         <v>44126</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22696,7 +22696,7 @@
         <v>44127</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>44132</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22820,7 +22820,7 @@
         <v>44138</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22877,7 +22877,7 @@
         <v>44147</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44147</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>44147</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23063,7 +23063,7 @@
         <v>44148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23125,7 +23125,7 @@
         <v>44151</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44158</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44158</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44162</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23373,7 +23373,7 @@
         <v>44166</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23430,7 +23430,7 @@
         <v>44166</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23487,7 +23487,7 @@
         <v>44182</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23544,7 +23544,7 @@
         <v>44182</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23601,7 +23601,7 @@
         <v>44182</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23658,7 +23658,7 @@
         <v>44183</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44201</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44229</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44277</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44277</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44277</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44277</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44282</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44323</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44323</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44348</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24295,7 +24295,7 @@
         <v>44354</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24357,7 +24357,7 @@
         <v>44358</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24414,7 +24414,7 @@
         <v>44361</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24471,7 +24471,7 @@
         <v>44369</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24533,7 +24533,7 @@
         <v>44369</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24595,7 +24595,7 @@
         <v>44376</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24657,7 +24657,7 @@
         <v>44383</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24719,7 +24719,7 @@
         <v>44386</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>44386</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24833,7 +24833,7 @@
         <v>44386</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44391</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>44392</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>44393</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>44399</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44399</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25200,7 +25200,7 @@
         <v>44399</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44400</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25324,7 +25324,7 @@
         <v>44400</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44400</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         <v>44403</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>44403</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>44403</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44403</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44405</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25733,7 +25733,7 @@
         <v>44407</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25795,7 +25795,7 @@
         <v>44412</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25852,7 +25852,7 @@
         <v>44412</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25909,7 +25909,7 @@
         <v>44424</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>44426</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26033,7 +26033,7 @@
         <v>44429</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26090,7 +26090,7 @@
         <v>44431</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26152,7 +26152,7 @@
         <v>44433</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
         <v>44439</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
         <v>44439</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>44440</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26390,7 +26390,7 @@
         <v>44440</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>44441</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>44447</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>44454</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>44459</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26695,7 +26695,7 @@
         <v>44459</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26757,7 +26757,7 @@
         <v>44459</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>44462</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26881,7 +26881,7 @@
         <v>44462</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>44462</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>44463</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27067,7 +27067,7 @@
         <v>44466</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27124,7 +27124,7 @@
         <v>44469</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27181,7 +27181,7 @@
         <v>44469</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27238,7 +27238,7 @@
         <v>44473</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>44473</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27357,7 +27357,7 @@
         <v>44475</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27419,7 +27419,7 @@
         <v>44476</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27481,7 +27481,7 @@
         <v>44477</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27543,7 +27543,7 @@
         <v>44477</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27600,7 +27600,7 @@
         <v>44481</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>44484</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27719,7 +27719,7 @@
         <v>44484</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>44484</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27843,7 +27843,7 @@
         <v>44489</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>44490</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>44491</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44491</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44494</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44495</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44496</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44496</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44496</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         <v>44496</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>44498</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>44500</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>44501</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>44501</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>44501</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>44501</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>44506</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>44509</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>44512</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>44513</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29043,7 +29043,7 @@
         <v>44515</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29100,7 +29100,7 @@
         <v>44518</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>44522</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44526</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29281,7 +29281,7 @@
         <v>44526</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44529</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44529</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29462,7 +29462,7 @@
         <v>44531</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>44531</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29576,7 +29576,7 @@
         <v>44531</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29633,7 +29633,7 @@
         <v>44534</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>44537</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>44538</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29809,7 +29809,7 @@
         <v>44543</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29866,7 +29866,7 @@
         <v>44543</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29923,7 +29923,7 @@
         <v>44544</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29980,7 +29980,7 @@
         <v>44545</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30042,7 +30042,7 @@
         <v>44546</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44550</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30156,7 +30156,7 @@
         <v>44551</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30213,7 +30213,7 @@
         <v>44552</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44558</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>44560</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>44564</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>44566</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>44566</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>44571</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30617,7 +30617,7 @@
         <v>44571</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30679,7 +30679,7 @@
         <v>44571</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>44571</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30803,7 +30803,7 @@
         <v>44571</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30860,7 +30860,7 @@
         <v>44578</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30922,7 +30922,7 @@
         <v>44578</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44580</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44581</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44585</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44585</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44594</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44603</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31326,7 +31326,7 @@
         <v>44603</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31383,7 +31383,7 @@
         <v>44606</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31440,7 +31440,7 @@
         <v>44616</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31497,7 +31497,7 @@
         <v>44616</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31554,7 +31554,7 @@
         <v>44620</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>44620</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>44637</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31725,7 +31725,7 @@
         <v>44641</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31782,7 +31782,7 @@
         <v>44642</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>44645</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>44650</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>44652</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>44670</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32067,7 +32067,7 @@
         <v>44670</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32124,7 +32124,7 @@
         <v>44673</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32186,7 +32186,7 @@
         <v>44683</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32243,7 +32243,7 @@
         <v>44683</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32300,7 +32300,7 @@
         <v>44694</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32357,7 +32357,7 @@
         <v>44698</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32419,7 +32419,7 @@
         <v>44704</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32476,7 +32476,7 @@
         <v>44707</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32538,7 +32538,7 @@
         <v>44711</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32595,7 +32595,7 @@
         <v>44711</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32652,7 +32652,7 @@
         <v>44719</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44726</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44729</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32828,7 +32828,7 @@
         <v>44733</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>44733</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44735</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32999,7 +32999,7 @@
         <v>44735</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>44735</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33113,7 +33113,7 @@
         <v>44742</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>44743</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>44748</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>44749</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>44749</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33418,7 +33418,7 @@
         <v>44756</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>44760</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>44760</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44760</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>44761</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>44761</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44776</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44777</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>44777</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44783</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>44783</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34085,7 +34085,7 @@
         <v>44784</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34147,7 +34147,7 @@
         <v>44788</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34204,7 +34204,7 @@
         <v>44788</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34266,7 +34266,7 @@
         <v>44789</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44805</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>44805</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>44805</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34514,7 +34514,7 @@
         <v>44809</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34576,7 +34576,7 @@
         <v>44811</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34638,7 +34638,7 @@
         <v>44812</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>44820</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44820</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44820</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>44820</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>44823</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34995,7 +34995,7 @@
         <v>44826</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35052,7 +35052,7 @@
         <v>44826</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>44826</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35166,7 +35166,7 @@
         <v>44826</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>44830</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>44830</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35342,7 +35342,7 @@
         <v>44830</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35399,7 +35399,7 @@
         <v>44837</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>44837</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35513,7 +35513,7 @@
         <v>44839</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>44839</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35637,7 +35637,7 @@
         <v>44839</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35699,7 +35699,7 @@
         <v>44840</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35761,7 +35761,7 @@
         <v>44846</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35823,7 +35823,7 @@
         <v>44846</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35880,7 +35880,7 @@
         <v>44846</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35942,7 +35942,7 @@
         <v>44846</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36004,7 +36004,7 @@
         <v>44847</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36061,7 +36061,7 @@
         <v>44851</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36118,7 +36118,7 @@
         <v>44854</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36180,7 +36180,7 @@
         <v>44859</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36237,7 +36237,7 @@
         <v>44859</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36299,7 +36299,7 @@
         <v>44861</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>44861</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>44866</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36480,7 +36480,7 @@
         <v>44866</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36537,7 +36537,7 @@
         <v>44867</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36594,7 +36594,7 @@
         <v>44873</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36651,7 +36651,7 @@
         <v>44874</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36708,7 +36708,7 @@
         <v>44874</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>44874</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>44874</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>44875</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36946,7 +36946,7 @@
         <v>44875</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37008,7 +37008,7 @@
         <v>44875</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37070,7 +37070,7 @@
         <v>44876</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>44880</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>44881</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37251,7 +37251,7 @@
         <v>44881</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37308,7 +37308,7 @@
         <v>44882</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37365,7 +37365,7 @@
         <v>44882</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37422,7 +37422,7 @@
         <v>44883</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>44886</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37541,7 +37541,7 @@
         <v>44887</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37598,7 +37598,7 @@
         <v>44887</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37660,7 +37660,7 @@
         <v>44888</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37722,7 +37722,7 @@
         <v>44888</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37779,7 +37779,7 @@
         <v>44888</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37836,7 +37836,7 @@
         <v>44888</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37898,7 +37898,7 @@
         <v>44888</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>44889</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>44890</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>44890</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>44893</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38208,7 +38208,7 @@
         <v>44894</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38270,7 +38270,7 @@
         <v>44895</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38332,7 +38332,7 @@
         <v>44895</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38394,7 +38394,7 @@
         <v>44896</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44900</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
         <v>44900</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38565,7 +38565,7 @@
         <v>44900</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38622,7 +38622,7 @@
         <v>44901</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44901</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38746,7 +38746,7 @@
         <v>44902</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>44903</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>44903</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38932,7 +38932,7 @@
         <v>44907</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38989,7 +38989,7 @@
         <v>44908</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>44908</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39103,7 +39103,7 @@
         <v>44909</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39165,7 +39165,7 @@
         <v>44909</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39222,7 +39222,7 @@
         <v>44909</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39279,7 +39279,7 @@
         <v>44909</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39341,7 +39341,7 @@
         <v>44909</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39403,7 +39403,7 @@
         <v>44909</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39465,7 +39465,7 @@
         <v>44910</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39522,7 +39522,7 @@
         <v>44910</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39584,7 +39584,7 @@
         <v>44911</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39646,7 +39646,7 @@
         <v>44911</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39708,7 +39708,7 @@
         <v>44911</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39765,7 +39765,7 @@
         <v>44915</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39827,7 +39827,7 @@
         <v>44917</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39889,7 +39889,7 @@
         <v>44917</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39946,7 +39946,7 @@
         <v>44921</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40003,7 +40003,7 @@
         <v>44921</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40060,7 +40060,7 @@
         <v>44924</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40117,7 +40117,7 @@
         <v>44924</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40179,7 +40179,7 @@
         <v>44930</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40241,7 +40241,7 @@
         <v>44930</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40298,7 +40298,7 @@
         <v>44931</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40360,7 +40360,7 @@
         <v>44933</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40417,7 +40417,7 @@
         <v>44934</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40479,7 +40479,7 @@
         <v>44936</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40536,7 +40536,7 @@
         <v>44936</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40598,7 +40598,7 @@
         <v>44943</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40655,7 +40655,7 @@
         <v>44945</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40717,7 +40717,7 @@
         <v>44950</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40779,7 +40779,7 @@
         <v>44951</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40836,7 +40836,7 @@
         <v>44952</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40898,7 +40898,7 @@
         <v>44952</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44952</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41017,7 +41017,7 @@
         <v>44952</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>44953</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41131,7 +41131,7 @@
         <v>44956</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41188,7 +41188,7 @@
         <v>44956</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41245,7 +41245,7 @@
         <v>44958</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41307,7 +41307,7 @@
         <v>44960</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>44963</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>44967</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41488,7 +41488,7 @@
         <v>44970</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41545,7 +41545,7 @@
         <v>44980</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44980</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44980</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>44981</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>44981</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41835,7 +41835,7 @@
         <v>44985</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41892,7 +41892,7 @@
         <v>44985</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>44987</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>44988</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42068,7 +42068,7 @@
         <v>44991</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42130,7 +42130,7 @@
         <v>44992</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42187,7 +42187,7 @@
         <v>44992</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42244,7 +42244,7 @@
         <v>44993</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42306,7 +42306,7 @@
         <v>44993</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>44994</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>44995</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>44998</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>44998</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>44998</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>44999</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44999</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45006</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45013</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42891,7 +42891,7 @@
         <v>45014</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42948,7 +42948,7 @@
         <v>45014</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>45015</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>45015</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>45015</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43176,7 +43176,7 @@
         <v>45020</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43233,7 +43233,7 @@
         <v>45020</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43290,7 +43290,7 @@
         <v>45020</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43347,7 +43347,7 @@
         <v>45021</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43404,7 +43404,7 @@
         <v>45021</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43461,7 +43461,7 @@
         <v>45021</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43518,7 +43518,7 @@
         <v>45021</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43575,7 +43575,7 @@
         <v>45035</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43632,7 +43632,7 @@
         <v>45035</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43689,7 +43689,7 @@
         <v>45035</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43746,7 +43746,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43803,7 +43803,7 @@
         <v>45035</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43860,7 +43860,7 @@
         <v>45040</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45041</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43984,7 +43984,7 @@
         <v>45041</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44041,7 +44041,7 @@
         <v>45041</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44098,7 +44098,7 @@
         <v>45041</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44155,7 +44155,7 @@
         <v>45043</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45057</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45057</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45058</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45058</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45058</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45063</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45063</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45069</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44673,7 +44673,7 @@
         <v>45072</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44730,7 +44730,7 @@
         <v>45075</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44792,7 +44792,7 @@
         <v>45075</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44854,7 +44854,7 @@
         <v>45075</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44916,7 +44916,7 @@
         <v>45076</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44973,7 +44973,7 @@
         <v>45077</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>45078</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45092,7 +45092,7 @@
         <v>45079</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45149,7 +45149,7 @@
         <v>45082</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45211,7 +45211,7 @@
         <v>45084</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45268,7 +45268,7 @@
         <v>45085</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45325,7 +45325,7 @@
         <v>45085</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>45086</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45439,7 +45439,7 @@
         <v>45086</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45496,7 +45496,7 @@
         <v>45090</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45558,7 +45558,7 @@
         <v>45091</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45620,7 +45620,7 @@
         <v>45091</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45682,7 +45682,7 @@
         <v>45091</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45739,7 +45739,7 @@
         <v>45091</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45801,7 +45801,7 @@
         <v>45093</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45863,7 +45863,7 @@
         <v>45093</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45925,7 +45925,7 @@
         <v>45097</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45987,7 +45987,7 @@
         <v>45097</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46049,7 +46049,7 @@
         <v>45098</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46106,7 +46106,7 @@
         <v>45098</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46168,7 +46168,7 @@
         <v>45098</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46230,7 +46230,7 @@
         <v>45098</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46292,7 +46292,7 @@
         <v>45098</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46354,7 +46354,7 @@
         <v>45098</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46411,7 +46411,7 @@
         <v>45101</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46468,7 +46468,7 @@
         <v>45101</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46525,7 +46525,7 @@
         <v>45103</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46582,7 +46582,7 @@
         <v>45103</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46644,7 +46644,7 @@
         <v>45103</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46706,7 +46706,7 @@
         <v>45103</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46763,7 +46763,7 @@
         <v>45104</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46820,7 +46820,7 @@
         <v>45106</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46882,7 +46882,7 @@
         <v>45107</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46939,7 +46939,7 @@
         <v>45107</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47001,7 +47001,7 @@
         <v>45107</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47058,7 +47058,7 @@
         <v>45117</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47120,7 +47120,7 @@
         <v>45117</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47182,7 +47182,7 @@
         <v>45124</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47244,7 +47244,7 @@
         <v>45124</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47306,7 +47306,7 @@
         <v>45127</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47368,7 +47368,7 @@
         <v>45127</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47430,7 +47430,7 @@
         <v>45135</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>45135</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47554,7 +47554,7 @@
         <v>45138</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>45140</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45140</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47735,7 +47735,7 @@
         <v>45140</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47797,7 +47797,7 @@
         <v>45140</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47859,7 +47859,7 @@
         <v>45142</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47921,7 +47921,7 @@
         <v>45142</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47983,7 +47983,7 @@
         <v>45145</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48045,7 +48045,7 @@
         <v>45145</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48102,7 +48102,7 @@
         <v>45145</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48164,7 +48164,7 @@
         <v>45146</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48221,7 +48221,7 @@
         <v>45149</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48278,7 +48278,7 @@
         <v>45152</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48335,7 +48335,7 @@
         <v>45152</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48392,7 +48392,7 @@
         <v>45152</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48449,7 +48449,7 @@
         <v>45152</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48506,7 +48506,7 @@
         <v>45152</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48563,7 +48563,7 @@
         <v>45154</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48625,7 +48625,7 @@
         <v>45187</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>

--- a/Översikt LYCKSELE.xlsx
+++ b/Översikt LYCKSELE.xlsx
@@ -572,7 +572,7 @@
         <v>43362</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>43472</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>43690</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>43903</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>43336</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         <v>44902</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         <v>44944</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>44103</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43817</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44109</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         <v>44433</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         <v>43396</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>45121</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1863,7 +1863,7 @@
         <v>44412</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>43482</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>44132</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44473</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>44945</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
         <v>44447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>44498</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>44501</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>44747</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         <v>44433</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>44501</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44601</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>44706</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         <v>44782</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>44811</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>44902</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44964</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>44972</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         <v>45016</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         <v>45103</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         <v>45142</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>43670</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>43739</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         <v>43781</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43816</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>43817</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43997</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         <v>44369</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>44470</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>44494</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>44615</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44720</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
         <v>44795</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         <v>44795</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>44834</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
         <v>44897</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>44993</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45061</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45097</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>45106</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45188</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43334</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43335</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5823,7 +5823,7 @@
         <v>43336</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43340</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43343</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43349</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43349</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43356</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43356</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43360</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         <v>43364</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>43378</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>43382</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>43395</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6532,7 +6532,7 @@
         <v>43398</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>43402</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6646,7 +6646,7 @@
         <v>43402</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
         <v>43402</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         <v>43403</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>43409</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6879,7 +6879,7 @@
         <v>43410</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6936,7 +6936,7 @@
         <v>43411</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         <v>43413</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7050,7 +7050,7 @@
         <v>43417</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>43425</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>43427</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>43430</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7340,7 +7340,7 @@
         <v>43430</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7397,7 +7397,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>43432</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>43437</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43437</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43438</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>43438</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         <v>43438</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         <v>43439</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8007,7 +8007,7 @@
         <v>43439</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         <v>43441</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8126,7 +8126,7 @@
         <v>43441</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8183,7 +8183,7 @@
         <v>43444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8240,7 +8240,7 @@
         <v>43444</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8297,7 +8297,7 @@
         <v>43447</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8354,7 +8354,7 @@
         <v>43447</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>43447</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8468,7 +8468,7 @@
         <v>43447</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8525,7 +8525,7 @@
         <v>43454</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8582,7 +8582,7 @@
         <v>43454</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8639,7 +8639,7 @@
         <v>43461</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>43468</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8758,7 +8758,7 @@
         <v>43469</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>43472</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8877,7 +8877,7 @@
         <v>43473</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8934,7 +8934,7 @@
         <v>43475</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8991,7 +8991,7 @@
         <v>43479</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>43480</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>43480</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>43481</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9219,7 +9219,7 @@
         <v>43483</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43483</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43486</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43488</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         <v>43489</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9509,7 +9509,7 @@
         <v>43495</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43495</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9623,7 +9623,7 @@
         <v>43495</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9680,7 +9680,7 @@
         <v>43495</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>43497</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>43497</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>43505</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>43511</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>43511</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10089,7 +10089,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10151,7 +10151,7 @@
         <v>43518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10208,7 +10208,7 @@
         <v>43518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10265,7 +10265,7 @@
         <v>43518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43518</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10379,7 +10379,7 @@
         <v>43518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10436,7 +10436,7 @@
         <v>43523</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10493,7 +10493,7 @@
         <v>43524</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10550,7 +10550,7 @@
         <v>43535</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>43538</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>43542</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>43551</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>43553</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>43560</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10902,7 +10902,7 @@
         <v>43563</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10959,7 +10959,7 @@
         <v>43566</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11021,7 +11021,7 @@
         <v>43572</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11078,7 +11078,7 @@
         <v>43579</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         <v>43581</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>43581</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11249,7 +11249,7 @@
         <v>43581</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>43581</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
         <v>43586</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11420,7 +11420,7 @@
         <v>43586</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11477,7 +11477,7 @@
         <v>43592</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11534,7 +11534,7 @@
         <v>43592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43592</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43593</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43594</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>43595</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         <v>43598</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43598</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43600</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43621</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43626</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43627</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43627</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43633</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         <v>43633</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         <v>43634</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         <v>43634</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12538,7 +12538,7 @@
         <v>43641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>43642</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12652,7 +12652,7 @@
         <v>43642</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12714,7 +12714,7 @@
         <v>43642</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>43642</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12838,7 +12838,7 @@
         <v>43642</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
         <v>43649</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>43649</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13014,7 +13014,7 @@
         <v>43650</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>43651</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>43655</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>43658</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>43661</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>43661</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>43668</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>43677</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>43684</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>43685</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13624,7 +13624,7 @@
         <v>43688</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13686,7 +13686,7 @@
         <v>43690</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>43690</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13810,7 +13810,7 @@
         <v>43691</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13867,7 +13867,7 @@
         <v>43696</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13929,7 +13929,7 @@
         <v>43696</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>43703</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43703</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>43703</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>43703</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>43704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>43704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>43707</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>43710</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>43711</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14524,7 +14524,7 @@
         <v>43712</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14581,7 +14581,7 @@
         <v>43713</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14643,7 +14643,7 @@
         <v>43713</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14705,7 +14705,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         <v>43713</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14824,7 +14824,7 @@
         <v>43713</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14881,7 +14881,7 @@
         <v>43717</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14943,7 +14943,7 @@
         <v>43720</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>43727</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15067,7 +15067,7 @@
         <v>43731</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43735</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15191,7 +15191,7 @@
         <v>43739</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15253,7 +15253,7 @@
         <v>43739</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>43739</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -153